--- a/data/scheduling_DNN/predict/0.9/result20.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result20.xlsx
@@ -570,10 +570,10 @@
         <v>1.354251861572266</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.4006289541721344</v>
       </c>
       <c r="W2" t="n">
-        <v>0.767591655254364</v>
+        <v>0.9093967080116272</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.955564022064209</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8670454621315002</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2440719157457352</v>
+        <v>0.007835535332560539</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9038150310516357</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.4009007215499878</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1436561346054077</v>
+        <v>0.2529228031635284</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9646880626678467</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.3999015092849731</v>
       </c>
       <c r="W5" t="n">
-        <v>0.192252442240715</v>
+        <v>0.3189838528633118</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8624889850616455</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.3999927937984467</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1608226299285889</v>
+        <v>0.2139027267694473</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8612699508666992</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8712232112884521</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2326755523681641</v>
+        <v>9.906739433063194e-05</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8685240745544434</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.518490731716156</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01149644702672958</v>
+        <v>0.1225233376026154</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9395210742950439</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.3991953134536743</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2012787461280823</v>
+        <v>0.2919519245624542</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8790268898010254</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.500365138053894</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1256271004676819</v>
+        <v>0.143384724855423</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8602771759033203</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.875221848487854</v>
       </c>
       <c r="W11" t="n">
-        <v>0.003582133911550045</v>
+        <v>0.0002233432314824313</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8565349578857422</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.8685080409049988</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02897613309323788</v>
+        <v>0.0001433547149645165</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9275128841400146</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.3991982638835907</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2175321877002716</v>
+        <v>0.279116302728653</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8640398979187012</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8761748671531677</v>
       </c>
       <c r="W14" t="n">
-        <v>0.03159809112548828</v>
+        <v>0.0001472574804211035</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9009048938751221</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.3990652859210968</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2335499376058578</v>
+        <v>0.2518430352210999</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8620569705963135</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.8875936269760132</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08166244626045227</v>
+        <v>0.0006521207978948951</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9405431747436523</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.862377941608429</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3233672380447388</v>
+        <v>0.006109803449362516</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8664679527282715</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.4061291813850403</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08436049520969391</v>
+        <v>0.2119117826223373</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.877453088760376</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.406283050775528</v>
       </c>
       <c r="W19" t="n">
-        <v>0.07995228469371796</v>
+        <v>0.2220012098550797</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9046781063079834</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.5096070766448975</v>
       </c>
       <c r="W20" t="n">
-        <v>0.005098128225654364</v>
+        <v>0.1560811251401901</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9096720218658447</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.5174144506454468</v>
       </c>
       <c r="W21" t="n">
-        <v>0.106959730386734</v>
+        <v>0.1538660079240799</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5249600410461426</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.4004871845245361</v>
       </c>
       <c r="W22" t="n">
-        <v>0.004024882335215807</v>
+        <v>0.01549349166452885</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5203139781951904</v>
       </c>
       <c r="V23" t="n">
-        <v>0.97564297914505</v>
+        <v>0.3992783725261688</v>
       </c>
       <c r="W23" t="n">
-        <v>0.2073245048522949</v>
+        <v>0.01464961748570204</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5197029113769531</v>
       </c>
       <c r="V24" t="n">
-        <v>0.802417516708374</v>
+        <v>0.5665165185928345</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07992754876613617</v>
+        <v>0.002191513776779175</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5299079418182373</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8668144345283508</v>
       </c>
       <c r="W25" t="n">
-        <v>0.09258510917425156</v>
+        <v>0.113505981862545</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5804708003997803</v>
       </c>
       <c r="V26" t="n">
-        <v>0.505433976650238</v>
+        <v>0.8868445754051208</v>
       </c>
       <c r="W26" t="n">
-        <v>0.005630524829030037</v>
+        <v>0.09386488795280457</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5123651027679443</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8745433688163757</v>
       </c>
       <c r="W27" t="n">
-        <v>0.005584142170846462</v>
+        <v>0.1311730891466141</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5148019790649414</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5177150368690491</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0005944932927377522</v>
+        <v>8.485905709676445e-06</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5309159755706787</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.866553783416748</v>
       </c>
       <c r="W29" t="n">
-        <v>0.002662699436768889</v>
+        <v>0.1126527413725853</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5254321098327637</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.4004063904285431</v>
       </c>
       <c r="W30" t="n">
-        <v>0.03173799440264702</v>
+        <v>0.01563142985105515</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5630111694335938</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.868485152721405</v>
       </c>
       <c r="W31" t="n">
-        <v>0.005227473564445972</v>
+        <v>0.09331435710191727</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5267131328582764</v>
       </c>
       <c r="V32" t="n">
-        <v>0.655465304851532</v>
+        <v>0.4004595875740051</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01657712087035179</v>
+        <v>0.01593995839357376</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5152859687805176</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.8736492395401001</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0826198011636734</v>
+        <v>0.1284242272377014</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5179731845855713</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.5210654735565186</v>
       </c>
       <c r="W34" t="n">
-        <v>0.002926697954535484</v>
+        <v>9.562250852468424e-06</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5152571201324463</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.5234667658805847</v>
       </c>
       <c r="W35" t="n">
-        <v>9.084263729164377e-05</v>
+        <v>6.73982867738232e-05</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5079898834228516</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.4009367227554321</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0002857047948054969</v>
+        <v>0.01146037876605988</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.514394998550415</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5160751342773438</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08247968554496765</v>
+        <v>2.822856004058849e-06</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5184738636016846</v>
       </c>
       <c r="V38" t="n">
-        <v>0.417630136013031</v>
+        <v>0.8881140351295471</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01016945764422417</v>
+        <v>0.1366338580846786</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5173470973968506</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.4004170596599579</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0001416030863765627</v>
+        <v>0.01367263402789831</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5155758857727051</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.4066068530082703</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01902969367802143</v>
+        <v>0.01187425013631582</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5083720684051514</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.3990300297737122</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02102789841592312</v>
+        <v>0.0119556812569499</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4416718482971191</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.4072476327419281</v>
       </c>
       <c r="W42" t="n">
-        <v>0.003942251671105623</v>
+        <v>0.001185026601888239</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4316799640655518</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5157776474952698</v>
       </c>
       <c r="W43" t="n">
-        <v>0.006549779791384935</v>
+        <v>0.007072420325130224</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.38214111328125</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5216173529624939</v>
       </c>
       <c r="W44" t="n">
-        <v>0.2109672576189041</v>
+        <v>0.0194536205381155</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3869838714599609</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.8927745223045349</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01071385573595762</v>
+        <v>0.2558241784572601</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3888320922851562</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.8646104335784912</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0008317854371853173</v>
+        <v>0.2263650298118591</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3875329494476318</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.8749265074729919</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03982057049870491</v>
+        <v>0.2375524789094925</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3911340236663818</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8875680565834045</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06886559724807739</v>
+        <v>0.2464467436075211</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3867719173431396</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.3999721705913544</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1731405705213547</v>
+        <v>0.0001742466847645119</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3876190185546875</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4009089171886444</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01882259733974934</v>
+        <v>0.0001766214118106291</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3867411613464355</v>
       </c>
       <c r="V51" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5306528806686401</v>
       </c>
       <c r="W51" t="n">
-        <v>0.3462966978549957</v>
+        <v>0.02071058377623558</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4399929046630859</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5101966857910156</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04553376138210297</v>
+        <v>0.004928570706397295</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3943779468536377</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.400442361831665</v>
       </c>
       <c r="W53" t="n">
-        <v>0.009292539209127426</v>
+        <v>3.677712811622769e-05</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3826780319213867</v>
       </c>
       <c r="V54" t="n">
-        <v>0.708076536655426</v>
+        <v>0.8688457608222961</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1058841869235039</v>
+        <v>0.2363590598106384</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4045310020446777</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.3990527391433716</v>
       </c>
       <c r="W55" t="n">
-        <v>0.007376548834145069</v>
+        <v>3.001136428792961e-05</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3881227970123291</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.4086870849132538</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04110832139849663</v>
+        <v>0.0004228899488225579</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3897840976715088</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.3990552127361298</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01317564118653536</v>
+        <v>8.595357212470844e-05</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3869659900665283</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.4004022479057312</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1724787503480911</v>
+        <v>0.000180533024831675</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3882980346679688</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.8761865496635437</v>
       </c>
       <c r="W59" t="n">
-        <v>0.01053709909319878</v>
+        <v>0.2380352020263672</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3886082172393799</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.4003978669643402</v>
       </c>
       <c r="W60" t="n">
-        <v>0.005606581922620535</v>
+        <v>0.0001389958342770115</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4338691234588623</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.517749011516571</v>
       </c>
       <c r="W61" t="n">
-        <v>0.137416809797287</v>
+        <v>0.007035835646092892</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8925290107727051</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.5172895789146423</v>
       </c>
       <c r="W62" t="n">
-        <v>0.002953030401840806</v>
+        <v>0.1408046334981918</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8653850555419922</v>
       </c>
       <c r="V63" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.4004381895065308</v>
       </c>
       <c r="W63" t="n">
-        <v>0.01206233259290457</v>
+        <v>0.2161755859851837</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8578071594238281</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.4009345471858978</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1110929399728775</v>
+        <v>0.2087325900793076</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9193859100341797</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.8840505480766296</v>
       </c>
       <c r="W65" t="n">
-        <v>0.3225007355213165</v>
+        <v>0.001248587854206562</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8577580451965332</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.3990611135959625</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1937899738550186</v>
+        <v>0.2104028761386871</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8747169971466064</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5210035443305969</v>
       </c>
       <c r="W67" t="n">
-        <v>0.04900965839624405</v>
+        <v>0.1251132041215897</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9150738716125488</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.3998282849788666</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1799558997154236</v>
+        <v>0.2654779851436615</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.919395923614502</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.4060604870319366</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2517489790916443</v>
+        <v>0.2635132968425751</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8575479984283447</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8663060665130615</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1935242712497711</v>
+        <v>7.670375634916127e-05</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8619720935821533</v>
       </c>
       <c r="V71" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.5140089392662048</v>
       </c>
       <c r="W71" t="n">
-        <v>0.02508546225726604</v>
+        <v>0.1210783571004868</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8653709888458252</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.5156278014183044</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2371913641691208</v>
+        <v>0.122320294380188</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9216928482055664</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.5030181407928467</v>
       </c>
       <c r="W73" t="n">
-        <v>0.04949355870485306</v>
+        <v>0.175288513302803</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8666291236877441</v>
       </c>
       <c r="V74" t="n">
-        <v>0.490370512008667</v>
+        <v>0.4004404246807098</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1415705382823944</v>
+        <v>0.2173319011926651</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8657879829406738</v>
       </c>
       <c r="V75" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.5171967148780823</v>
       </c>
       <c r="W75" t="n">
-        <v>0.001012182328850031</v>
+        <v>0.1215158700942993</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8658850193023682</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.516457736492157</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1311437785625458</v>
+        <v>0.1220994293689728</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9235298633575439</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.3990355134010315</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1092343553900719</v>
+        <v>0.2750943303108215</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8606081008911133</v>
       </c>
       <c r="V78" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.399986207485199</v>
       </c>
       <c r="W78" t="n">
-        <v>0.2636687457561493</v>
+        <v>0.2121725231409073</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8655250072479248</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8674668669700623</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1308368891477585</v>
+        <v>3.770819148485316e-06</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8514149188995361</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5206453204154968</v>
       </c>
       <c r="W80" t="n">
-        <v>0.06799612194299698</v>
+        <v>0.1094085276126862</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9106998443603516</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.5120416879653931</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2021180689334869</v>
+        <v>0.158928319811821</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5545799732208252</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.3992590308189392</v>
       </c>
       <c r="W82" t="n">
-        <v>0.008297284133732319</v>
+        <v>0.02412459440529346</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5165619850158691</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.5159279704093933</v>
       </c>
       <c r="W83" t="n">
-        <v>0.003570456756278872</v>
+        <v>4.01974517671988e-07</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5125730037689209</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8828158378601074</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01973335258662701</v>
+        <v>0.1370797604322433</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5154180526733398</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.8676626086235046</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0006134683499112725</v>
+        <v>0.1240762248635292</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5519139766693115</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.8749467134475708</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01803205348551273</v>
+        <v>0.1043501496315002</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5145139694213867</v>
       </c>
       <c r="V87" t="n">
-        <v>0.490329772233963</v>
+        <v>0.5067859888076782</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0005848754080943763</v>
+        <v>5.972168582957238e-05</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5166299343109131</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5161805748939514</v>
       </c>
       <c r="W88" t="n">
-        <v>0.004324991255998611</v>
+        <v>2.019238820594182e-07</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5164880752563477</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5653682947158813</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02083873562514782</v>
+        <v>0.002389275934547186</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5461790561676025</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.8861702680587769</v>
       </c>
       <c r="W90" t="n">
-        <v>0.007168697193264961</v>
+        <v>0.1155940219759941</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.557750940322876</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.8781615495681763</v>
       </c>
       <c r="W91" t="n">
-        <v>0.04285313934087753</v>
+        <v>0.1026629582047462</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5169041156768799</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5160970091819763</v>
       </c>
       <c r="W92" t="n">
-        <v>0.002817469881847501</v>
+        <v>6.514209189845133e-07</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5182931423187256</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.5664464235305786</v>
       </c>
       <c r="W93" t="n">
-        <v>0.002967623993754387</v>
+        <v>0.002318738494068384</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5126919746398926</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.3998910486698151</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0001413464487995952</v>
+        <v>0.01272404845803976</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5174551010131836</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.3990433812141418</v>
       </c>
       <c r="W95" t="n">
-        <v>0.03070798516273499</v>
+        <v>0.01402133516967297</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5192959308624268</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.8876391053199768</v>
       </c>
       <c r="W96" t="n">
-        <v>0.003239098470658064</v>
+        <v>0.135676696896553</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5808908939361572</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.4057653248310089</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01250281557440758</v>
+        <v>0.03066896460950375</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5214481353759766</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.8716226816177368</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01077792327851057</v>
+        <v>0.1226222142577171</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.512747049331665</v>
       </c>
       <c r="V99" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5188063979148865</v>
       </c>
       <c r="W99" t="n">
-        <v>0.08387227356433868</v>
+        <v>3.671570448204875e-05</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5123469829559326</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.8702346086502075</v>
       </c>
       <c r="W100" t="n">
-        <v>0.01990214362740517</v>
+        <v>0.1280835568904877</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5169899463653564</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.8890959620475769</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01913256198167801</v>
+        <v>0.1384628862142563</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4159770011901855</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.516324520111084</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0563410148024559</v>
+        <v>0.01006962452083826</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4081320762634277</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.8825993537902832</v>
       </c>
       <c r="W103" t="n">
-        <v>0.06038562580943108</v>
+        <v>0.2251192033290863</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3999199867248535</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8693898916244507</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0649535208940506</v>
+        <v>0.2204019874334335</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4027910232543945</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.4000002443790436</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0005971543723717332</v>
+        <v>7.78844696469605e-06</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.394542932510376</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.4012627899646759</v>
       </c>
       <c r="W106" t="n">
-        <v>0.03299955278635025</v>
+        <v>4.515648470260203e-05</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3877739906311035</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.3990588188171387</v>
       </c>
       <c r="W107" t="n">
-        <v>0.1703159213066101</v>
+        <v>0.0001273473462788388</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3874669075012207</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5159916877746582</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01058568060398102</v>
+        <v>0.01651861891150475</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3998849391937256</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5338122844696045</v>
       </c>
       <c r="W109" t="n">
-        <v>0.008231150917708874</v>
+        <v>0.01793653331696987</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3977890014648438</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.5207241773605347</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0006677325000055134</v>
+        <v>0.01511305756866932</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.5410671234130859</v>
       </c>
       <c r="V111" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8759849667549133</v>
       </c>
       <c r="W111" t="n">
-        <v>0.0002697928284760565</v>
+        <v>0.1121699586510658</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4102871417999268</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.4069273769855499</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01334429252892733</v>
+        <v>1.128801977756666e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3891448974609375</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8640908002853394</v>
       </c>
       <c r="W113" t="n">
-        <v>0.07031745463609695</v>
+        <v>0.2255736142396927</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.4135980606079102</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.4066590070724487</v>
       </c>
       <c r="W114" t="n">
-        <v>0.008219382725656033</v>
+        <v>4.815046486328356e-05</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.420119047164917</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.8743439912796021</v>
       </c>
       <c r="W115" t="n">
-        <v>0.002315178047865629</v>
+        <v>0.2063203006982803</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3919508457183838</v>
       </c>
       <c r="V116" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5055947303771973</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0001830710098147392</v>
+        <v>0.01291493233293295</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3871231079101562</v>
       </c>
       <c r="V117" t="n">
-        <v>0.654336154460907</v>
+        <v>0.4970252513885498</v>
       </c>
       <c r="W117" t="n">
-        <v>0.07140281051397324</v>
+        <v>0.01207848079502583</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.3947951793670654</v>
       </c>
       <c r="V118" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.4003980755805969</v>
       </c>
       <c r="W118" t="n">
-        <v>0.192659467458725</v>
+        <v>3.139244654448703e-05</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3893699645996094</v>
       </c>
       <c r="V119" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5171985030174255</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0007999499794095755</v>
+        <v>0.01634013466536999</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3995180130004883</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.4090013206005096</v>
       </c>
       <c r="W120" t="n">
-        <v>0.00485630426555872</v>
+        <v>8.9933120761998e-05</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4447309970855713</v>
       </c>
       <c r="V121" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.8759480118751526</v>
       </c>
       <c r="W121" t="n">
-        <v>0.2819643616676331</v>
+        <v>0.1859481185674667</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8855268955230713</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.3990344107151031</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2459825575351715</v>
+        <v>0.2366749346256256</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9227871894836426</v>
       </c>
       <c r="V123" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5360294580459595</v>
       </c>
       <c r="W123" t="n">
-        <v>0.04608269780874252</v>
+        <v>0.1495815366506577</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8846330642700195</v>
       </c>
       <c r="V124" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.3999032974243164</v>
       </c>
       <c r="W124" t="n">
-        <v>0.003019711934030056</v>
+        <v>0.2349629402160645</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9254310131072998</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.5163227319717407</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2579807639122009</v>
+        <v>0.1673695892095566</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8755600452423096</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.516660213470459</v>
       </c>
       <c r="W126" t="n">
-        <v>0.08582468330860138</v>
+        <v>0.1288090944290161</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8696229457855225</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.4003701210021973</v>
       </c>
       <c r="W127" t="n">
-        <v>0.04697669669985771</v>
+        <v>0.2201982140541077</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8604490756988525</v>
       </c>
       <c r="V128" t="n">
-        <v>0.490907609462738</v>
+        <v>0.8753413558006287</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1365609019994736</v>
+        <v>0.0002217800065409392</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.908344030380249</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.4004532992839813</v>
       </c>
       <c r="W129" t="n">
-        <v>0.01075528096407652</v>
+        <v>0.2579529583454132</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8747379779815674</v>
       </c>
       <c r="V130" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5108410716056824</v>
       </c>
       <c r="W130" t="n">
-        <v>0.02778710424900055</v>
+        <v>0.1324209570884705</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8641781806945801</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.4069808721542358</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2421416789293289</v>
+        <v>0.2090293765068054</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8708858489990234</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.4004225432872772</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1191067919135094</v>
+        <v>0.2213357239961624</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>1.040012121200562</v>
       </c>
       <c r="V133" t="n">
-        <v>0.35074183344841</v>
+        <v>0.5338747501373291</v>
       </c>
       <c r="W133" t="n">
-        <v>0.4750934839248657</v>
+        <v>0.2561750411987305</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8626010417938232</v>
       </c>
       <c r="V134" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.8755236268043518</v>
       </c>
       <c r="W134" t="n">
-        <v>0.0127678494900465</v>
+        <v>0.0001669932098593563</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8808248043060303</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.4001265168190002</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1524989902973175</v>
+        <v>0.2310708463191986</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8533949851989746</v>
       </c>
       <c r="V136" t="n">
-        <v>0.652911365032196</v>
+        <v>0.5226579904556274</v>
       </c>
       <c r="W136" t="n">
-        <v>0.04019368067383766</v>
+        <v>0.1093869581818581</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9238240718841553</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5203850865364075</v>
       </c>
       <c r="W137" t="n">
-        <v>0.175232321023941</v>
+        <v>0.1627630144357681</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8670427799224854</v>
       </c>
       <c r="V138" t="n">
-        <v>0.490833193063736</v>
+        <v>0.4012666046619415</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1415336579084396</v>
+        <v>0.2169474512338638</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.861328125</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8712410926818848</v>
       </c>
       <c r="W139" t="n">
-        <v>0.07792942225933075</v>
+        <v>9.826692985370755e-05</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8629481792449951</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.4009062647819519</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1384694576263428</v>
+        <v>0.2134827375411987</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.9176821708679199</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.5237910151481628</v>
       </c>
       <c r="W141" t="n">
-        <v>0.3213773965835571</v>
+        <v>0.1551502496004105</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5482630729675293</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.8761480450630188</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0007805622881278396</v>
+        <v>0.1075085550546646</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5196769237518311</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.8747369050979614</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01788817532360554</v>
+        <v>0.1260675936937332</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5205450057983398</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8730477094650269</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02882152982056141</v>
+        <v>0.1242581531405449</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5188238620758057</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.399840235710144</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01023412775248289</v>
+        <v>0.01415710337460041</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.576012134552002</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8768666386604309</v>
       </c>
       <c r="W146" t="n">
-        <v>0.02507534250617027</v>
+        <v>0.0905134305357933</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5310349464416504</v>
       </c>
       <c r="V147" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.8753945827484131</v>
       </c>
       <c r="W147" t="n">
-        <v>0.09370174258947372</v>
+        <v>0.1185835599899292</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5219700336456299</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.3998323380947113</v>
       </c>
       <c r="W148" t="n">
-        <v>0.02919749543070793</v>
+        <v>0.01491761673241854</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5235979557037354</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.4001078903675079</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0003995654406026006</v>
+        <v>0.01524979621171951</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5158951282501221</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.5290446281433105</v>
       </c>
       <c r="W150" t="n">
-        <v>0.00967155396938324</v>
+        <v>0.0001729093492031097</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5120859146118164</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.4003766775131226</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0349557064473629</v>
+        <v>0.01247895322740078</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.516077995300293</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.534117579460144</v>
       </c>
       <c r="W152" t="n">
-        <v>0.005592376459389925</v>
+        <v>0.0003254266048315912</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5141050815582275</v>
       </c>
       <c r="V153" t="n">
-        <v>0.975181519985199</v>
+        <v>0.867364227771759</v>
       </c>
       <c r="W153" t="n">
-        <v>0.2125914841890335</v>
+        <v>0.1247920244932175</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5135571956634521</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.5334916710853577</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01821896247565746</v>
+        <v>0.0003973833227064461</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5195629596710205</v>
       </c>
       <c r="V155" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.8866210579872131</v>
       </c>
       <c r="W155" t="n">
-        <v>0.2079642415046692</v>
+        <v>0.134731650352478</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5117571353912354</v>
       </c>
       <c r="V156" t="n">
-        <v>0.699232816696167</v>
+        <v>0.3990470468997955</v>
       </c>
       <c r="W156" t="n">
-        <v>0.03514713048934937</v>
+        <v>0.01270356401801109</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5727570056915283</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5319186449050903</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0407000370323658</v>
+        <v>0.001667771721258759</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5174200534820557</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8686878681182861</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02777562849223614</v>
+        <v>0.1233890801668167</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5205020904541016</v>
       </c>
       <c r="V159" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.5228714346885681</v>
       </c>
       <c r="W159" t="n">
-        <v>0.2070953994989395</v>
+        <v>5.613791927316925e-06</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5197839736938477</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5457887649536133</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01715727895498276</v>
+        <v>0.0006762491539120674</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5194149017333984</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8759915828704834</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0177233312278986</v>
+        <v>0.1271469295024872</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3930768966674805</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5162731409072876</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06798993796110153</v>
+        <v>0.01517731416970491</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3901159763336182</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.5346982479095459</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0007535464246757329</v>
+        <v>0.02090403251349926</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3903021812438965</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.3998927474021912</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0007473319419659674</v>
+        <v>9.197895997203887e-05</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3930621147155762</v>
       </c>
       <c r="V165" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.8817408680915833</v>
       </c>
       <c r="W165" t="n">
-        <v>0.1666262894868851</v>
+        <v>0.2388069182634354</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3910620212554932</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.8819302320480347</v>
       </c>
       <c r="W166" t="n">
-        <v>0.06744343787431717</v>
+        <v>0.2409515976905823</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3932259082794189</v>
       </c>
       <c r="V167" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8746075630187988</v>
       </c>
       <c r="W167" t="n">
-        <v>0.001739631174132228</v>
+        <v>0.2317283004522324</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4023430347442627</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.399048238992691</v>
       </c>
       <c r="W168" t="n">
-        <v>0.007752337027341127</v>
+        <v>1.085567873815307e-05</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4425280094146729</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.3998236060142517</v>
       </c>
       <c r="W169" t="n">
-        <v>0.04456843808293343</v>
+        <v>0.001823666039854288</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3961889743804932</v>
       </c>
       <c r="V170" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.8663153052330017</v>
       </c>
       <c r="W170" t="n">
-        <v>0.1655924320220947</v>
+        <v>0.2210187613964081</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3892269134521484</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.3990601599216461</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01340794749557972</v>
+        <v>9.669273276813328e-05</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3962669372558594</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.523446261882782</v>
       </c>
       <c r="W172" t="n">
-        <v>0.004517911933362484</v>
+        <v>0.01617458090186119</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3929891586303711</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.3998642563819885</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01257092878222466</v>
+        <v>4.726697079604492e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3880558013916016</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.4004527032375336</v>
       </c>
       <c r="W174" t="n">
-        <v>0.01369888707995415</v>
+        <v>0.0001536831696284935</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.449537992477417</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8690599799156189</v>
       </c>
       <c r="W175" t="n">
-        <v>0.04150789976119995</v>
+        <v>0.1759987026453018</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3929719924926758</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8813393712043762</v>
       </c>
       <c r="W176" t="n">
-        <v>0.005020645447075367</v>
+        <v>0.2385026961565018</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4005780220031738</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.8742602467536926</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002481347182765603</v>
+        <v>0.22437484562397</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3936870098114014</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8597232699394226</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0005692089325748384</v>
+        <v>0.2171897888183594</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3929297924041748</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.8645788431167603</v>
       </c>
       <c r="W179" t="n">
-        <v>0.001776134362444282</v>
+        <v>0.2224528342485428</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.387890100479126</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.3990223109722137</v>
       </c>
       <c r="W180" t="n">
-        <v>0.00137809687294066</v>
+        <v>0.0001239261036971584</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4023661613464355</v>
       </c>
       <c r="V181" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5098145008087158</v>
       </c>
       <c r="W181" t="n">
-        <v>0.1581633985042572</v>
+        <v>0.01154514588415623</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8709530830383301</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8740212917327881</v>
       </c>
       <c r="W182" t="n">
-        <v>0.08043702691793442</v>
+        <v>9.413904990651645e-06</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9189059734344482</v>
       </c>
       <c r="V183" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8692312240600586</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1077626496553421</v>
+        <v>0.002467580838128924</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8743200302124023</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8721522688865662</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1219052672386169</v>
+        <v>4.699189048551489e-06</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8938460350036621</v>
       </c>
       <c r="V185" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.4057207703590393</v>
       </c>
       <c r="W185" t="n">
-        <v>0.006671973038464785</v>
+        <v>0.2382662743330002</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8681211471557617</v>
       </c>
       <c r="V186" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.51626056432724</v>
       </c>
       <c r="W186" t="n">
-        <v>0.00457293726503849</v>
+        <v>0.1238058730959892</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8859708309173584</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.516226589679718</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1453705728054047</v>
+        <v>0.1367108076810837</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8645780086517334</v>
       </c>
       <c r="V188" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5224483609199524</v>
       </c>
       <c r="W188" t="n">
-        <v>0.04455673694610596</v>
+        <v>0.1170526966452599</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9230661392211914</v>
       </c>
       <c r="V189" t="n">
-        <v>0.372467577457428</v>
+        <v>0.399066686630249</v>
       </c>
       <c r="W189" t="n">
-        <v>0.3031587898731232</v>
+        <v>0.274575412273407</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8635609149932861</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.5161292552947998</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1597621440887451</v>
+        <v>0.1207087561488152</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8786489963531494</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.399862140417099</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2786858677864075</v>
+        <v>0.2292368561029434</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8609321117401123</v>
       </c>
       <c r="V192" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.5386325120925903</v>
       </c>
       <c r="W192" t="n">
-        <v>0.0007208384922705591</v>
+        <v>0.103877030313015</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9282732009887695</v>
       </c>
       <c r="V193" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5224966406822205</v>
       </c>
       <c r="W193" t="n">
-        <v>0.3335248231887817</v>
+        <v>0.1646546125411987</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8638420104980469</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8820047974586487</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2621362209320068</v>
+        <v>0.0003298868250567466</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8684389591217041</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.3991877436637878</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1593950688838959</v>
+        <v>0.2201967090368271</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8597240447998047</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8804211616516113</v>
       </c>
       <c r="W196" t="n">
-        <v>0.112169124186039</v>
+        <v>0.0004283706366550177</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9256141185760498</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.3990490436553955</v>
       </c>
       <c r="W197" t="n">
-        <v>0.07425792515277863</v>
+        <v>0.2772707641124725</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8713750839233398</v>
       </c>
       <c r="V198" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.4004262983798981</v>
       </c>
       <c r="W198" t="n">
-        <v>0.001389093580655754</v>
+        <v>0.2217927575111389</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8712639808654785</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.8714396953582764</v>
       </c>
       <c r="W199" t="n">
-        <v>0.118978388607502</v>
+        <v>3.087558297920623e-08</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8604650497436523</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5164723992347717</v>
       </c>
       <c r="W200" t="n">
-        <v>0.08090854436159134</v>
+        <v>0.1183309406042099</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9409980773925781</v>
       </c>
       <c r="V201" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.4012974500656128</v>
       </c>
       <c r="W201" t="n">
-        <v>0.3472940623760223</v>
+        <v>0.291276752948761</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5198400020599365</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5162878036499023</v>
       </c>
       <c r="W202" t="n">
-        <v>0.03217857331037521</v>
+        <v>1.261811394215329e-05</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5186119079589844</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.873085618019104</v>
       </c>
       <c r="W203" t="n">
-        <v>0.01783446967601776</v>
+        <v>0.1256516128778458</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5283291339874268</v>
       </c>
       <c r="V204" t="n">
-        <v>0.576347291469574</v>
+        <v>0.8710633516311646</v>
       </c>
       <c r="W204" t="n">
-        <v>0.002305743517354131</v>
+        <v>0.1174667403101921</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5149800777435303</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.4009248614311218</v>
       </c>
       <c r="W205" t="n">
-        <v>0.02697029523551464</v>
+        <v>0.0130085926502943</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5194909572601318</v>
       </c>
       <c r="V206" t="n">
-        <v>0.417632520198822</v>
+        <v>0.4012739360332489</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01037514116615057</v>
+        <v>0.01397526450455189</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5268590450286865</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.3990526497364044</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02400596253573895</v>
+        <v>0.01633447408676147</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5174260139465332</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.5197406411170959</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0007094497559592128</v>
+        <v>5.357499048841419e-06</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5134661197662354</v>
       </c>
       <c r="V209" t="n">
-        <v>0.417652815580368</v>
+        <v>0.8756654858589172</v>
       </c>
       <c r="W209" t="n">
-        <v>0.009180189110338688</v>
+        <v>0.131188377737999</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5186221599578857</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5340757369995117</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0001822267950046808</v>
+        <v>0.0002388130378676578</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5209619998931885</v>
       </c>
       <c r="V211" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8926763534545898</v>
       </c>
       <c r="W211" t="n">
-        <v>0.03507420048117638</v>
+        <v>0.1381715536117554</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.572490930557251</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8739296793937683</v>
       </c>
       <c r="W212" t="n">
-        <v>0.006834028754383326</v>
+        <v>0.09086532145738602</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5224580764770508</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.8745346665382385</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01101882103830576</v>
+        <v>0.1239579245448112</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5198771953582764</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8874852061271667</v>
       </c>
       <c r="W214" t="n">
-        <v>2.055883305729367e-05</v>
+        <v>0.1351356506347656</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5207560062408447</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.3990656137466431</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0003939142916351557</v>
+        <v>0.01480855140835047</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5230591297149658</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.4090816378593445</v>
       </c>
       <c r="W216" t="n">
-        <v>0.000343370164046064</v>
+        <v>0.0129908686503768</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5197432041168213</v>
       </c>
       <c r="V217" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5227416753768921</v>
       </c>
       <c r="W217" t="n">
-        <v>0.03546962514519691</v>
+        <v>8.990829883259721e-06</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5274670124053955</v>
       </c>
       <c r="V218" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8673136830329895</v>
       </c>
       <c r="W218" t="n">
-        <v>0.09131472557783127</v>
+        <v>0.1154957562685013</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5363619327545166</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.399832546710968</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0009775797370821238</v>
+        <v>0.01864027418196201</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5223660469055176</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.5350267887115479</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0002981077414005995</v>
+        <v>0.0001602943812031299</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5163857936859131</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.399059385061264</v>
       </c>
       <c r="W221" t="n">
-        <v>0.009750490076839924</v>
+        <v>0.0137654859572649</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3868558406829834</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.521373450756073</v>
       </c>
       <c r="W222" t="n">
-        <v>0.005566113162785769</v>
+        <v>0.0180949866771698</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4408400058746338</v>
       </c>
       <c r="V223" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.4009371101856232</v>
       </c>
       <c r="W223" t="n">
-        <v>0.2864578068256378</v>
+        <v>0.001592241111211479</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3950338363647461</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.5344887375831604</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0005300425109453499</v>
+        <v>0.01944766938686371</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3922538757324219</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.5211465358734131</v>
       </c>
       <c r="W225" t="n">
-        <v>0.06867234408855438</v>
+        <v>0.0166133176535368</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3933389186859131</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.5379303097724915</v>
       </c>
       <c r="W226" t="n">
-        <v>0.0005899358075112104</v>
+        <v>0.02090667001903057</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.393557071685791</v>
       </c>
       <c r="V227" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.8845085501670837</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1690612584352493</v>
+        <v>0.2410333603620529</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3950269222259521</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.3998436331748962</v>
       </c>
       <c r="W228" t="n">
-        <v>0.01167258433997631</v>
+        <v>2.320070416317321e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4323990345001221</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5230658650398254</v>
       </c>
       <c r="W229" t="n">
-        <v>0.04941344261169434</v>
+        <v>0.008220474235713482</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3930180072784424</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.5232687592506409</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0006068458897061646</v>
+        <v>0.01696525886654854</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3946881294250488</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.5207890868186951</v>
       </c>
       <c r="W231" t="n">
-        <v>0.009222905151546001</v>
+        <v>0.01590145193040371</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3986198902130127</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.5183355808258057</v>
       </c>
       <c r="W232" t="n">
-        <v>0.09037454426288605</v>
+        <v>0.01433184649795294</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3958990573883057</v>
       </c>
       <c r="V233" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.8742493391036987</v>
       </c>
       <c r="W233" t="n">
-        <v>0.3360261619091034</v>
+        <v>0.2288189977407455</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.394061803817749</v>
       </c>
       <c r="V234" t="n">
-        <v>0.503772497177124</v>
+        <v>0.5349621772766113</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01203643623739481</v>
+        <v>0.01985291577875614</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3961248397827148</v>
       </c>
       <c r="V235" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5091374516487122</v>
       </c>
       <c r="W235" t="n">
-        <v>0.1650150865316391</v>
+        <v>0.01277185045182705</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3957741260528564</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5364724397659302</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06616214662790298</v>
+        <v>0.01979601569473743</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3942379951477051</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.5164592266082764</v>
       </c>
       <c r="W237" t="n">
-        <v>0.0005429757293313742</v>
+        <v>0.01493802946060896</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3947830200195312</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8697429299354553</v>
       </c>
       <c r="W238" t="n">
-        <v>0.00476313941180706</v>
+        <v>0.2255869209766388</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3909780979156494</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8640468716621399</v>
       </c>
       <c r="W239" t="n">
-        <v>0.01284131314605474</v>
+        <v>0.2237940579652786</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3872981071472168</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.3999917805194855</v>
       </c>
       <c r="W240" t="n">
-        <v>0.005451147444546223</v>
+        <v>0.0001611293409951031</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3929729461669922</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.8674861192703247</v>
       </c>
       <c r="W241" t="n">
-        <v>0.1660293191671371</v>
+        <v>0.2251627445220947</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8981070518493652</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8779779672622681</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1667659431695938</v>
+        <v>0.0004051800351589918</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9124290943145752</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.8738441467285156</v>
       </c>
       <c r="W243" t="n">
-        <v>0.04828204214572906</v>
+        <v>0.001488798181526363</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8757648468017578</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.8898855447769165</v>
       </c>
       <c r="W244" t="n">
-        <v>0.04925994947552681</v>
+        <v>0.0001993941114051268</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8683171272277832</v>
       </c>
       <c r="V245" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.3990451991558075</v>
       </c>
       <c r="W245" t="n">
-        <v>0.00405404856428504</v>
+        <v>0.2202161401510239</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8702261447906494</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.5210459232330322</v>
       </c>
       <c r="W246" t="n">
-        <v>0.08294183015823364</v>
+        <v>0.1219268292188644</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5152207016944885</v>
       </c>
       <c r="W247" t="n">
-        <v>0.02830187417566776</v>
+        <v>0.1240690052509308</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8697900772094727</v>
       </c>
       <c r="V248" t="n">
-        <v>0.838257908821106</v>
+        <v>0.4003548622131348</v>
       </c>
       <c r="W248" t="n">
-        <v>0.0009942776523530483</v>
+        <v>0.220369428396225</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8909769058227539</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.3999862968921661</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2918446362018585</v>
+        <v>0.2410717755556107</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8678219318389893</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.882485568523407</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2662231922149658</v>
+        <v>0.0002150222426280379</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8851990699768066</v>
       </c>
       <c r="V251" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.4004219174385071</v>
       </c>
       <c r="W251" t="n">
-        <v>0.008098804391920567</v>
+        <v>0.2350088804960251</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9639170169830322</v>
       </c>
       <c r="V252" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.5229949951171875</v>
       </c>
       <c r="W252" t="n">
-        <v>0.02614693157374859</v>
+        <v>0.1944122314453125</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8971560001373291</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5165761709213257</v>
       </c>
       <c r="W253" t="n">
-        <v>0.138423815369606</v>
+        <v>0.1448410004377365</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8726570606231689</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.530549168586731</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1204020529985428</v>
+        <v>0.1170378103852272</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8707559108734131</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.5175377726554871</v>
       </c>
       <c r="W255" t="n">
-        <v>0.119850717484951</v>
+        <v>0.1247630566358566</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8657369613647461</v>
       </c>
       <c r="V256" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.5299067497253418</v>
       </c>
       <c r="W256" t="n">
-        <v>0.0007341594900935888</v>
+        <v>0.112781934440136</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9361629486083984</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.8694110512733459</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1295435875654221</v>
+        <v>0.004455816000699997</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8673548698425293</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5200053453445435</v>
       </c>
       <c r="W258" t="n">
-        <v>0.02826458401978016</v>
+        <v>0.1206516921520233</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8676390647888184</v>
       </c>
       <c r="V259" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.5324785113334656</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2710322141647339</v>
+        <v>0.1123325973749161</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8648619651794434</v>
       </c>
       <c r="V260" t="n">
-        <v>0.653571605682373</v>
+        <v>0.511528491973877</v>
       </c>
       <c r="W260" t="n">
-        <v>0.04464361444115639</v>
+        <v>0.1248445436358452</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9226889610290527</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.3991748988628387</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2550867795944214</v>
+        <v>0.2740669548511505</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5556530952453613</v>
       </c>
       <c r="V262" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.4009253680706024</v>
       </c>
       <c r="W262" t="n">
-        <v>0.03143545240163803</v>
+        <v>0.0239406693726778</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5386548042297363</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.8698707222938538</v>
       </c>
       <c r="W263" t="n">
-        <v>0.003143620910122991</v>
+        <v>0.1097039878368378</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5858919620513916</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.863520085811615</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01498187333345413</v>
+        <v>0.07707737386226654</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5251259803771973</v>
       </c>
       <c r="V265" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.3990627825260162</v>
       </c>
       <c r="W265" t="n">
-        <v>0.2029513269662857</v>
+        <v>0.01589193008840084</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5170869827270508</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.401321142911911</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0193813294172287</v>
+        <v>0.01340172998607159</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5340030193328857</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.5163353681564331</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01428211200982332</v>
+        <v>0.0003121458867099136</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5235750675201416</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5208179354667664</v>
       </c>
       <c r="W268" t="n">
-        <v>0.00034881237661466</v>
+        <v>7.601777269883314e-06</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5228190422058105</v>
       </c>
       <c r="V269" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.4063528776168823</v>
       </c>
       <c r="W269" t="n">
-        <v>0.02960782684385777</v>
+        <v>0.01356436777859926</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5166230201721191</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.8900919556617737</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01894284971058369</v>
+        <v>0.1394790410995483</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.521543025970459</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.8648529648780823</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01079869363456964</v>
+        <v>0.1178617104887962</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5878350734710693</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.8570718169212341</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01102588046342134</v>
+        <v>0.07248842716217041</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.522022008895874</v>
       </c>
       <c r="V273" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.5233101844787598</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0306199137121439</v>
+        <v>1.659396275499603e-06</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5326571464538574</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8977555632591248</v>
       </c>
       <c r="W274" t="n">
-        <v>5.908221646677703e-05</v>
+        <v>0.1332968473434448</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5186278820037842</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.4097566306591034</v>
       </c>
       <c r="W275" t="n">
-        <v>0.003269769018515944</v>
+        <v>0.01185294892638922</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5191760063171387</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5156712532043457</v>
       </c>
       <c r="W276" t="n">
-        <v>0.02836684882640839</v>
+        <v>1.2283294381632e-05</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5793061256408691</v>
       </c>
       <c r="V277" t="n">
-        <v>0.800457239151001</v>
+        <v>0.5342776775360107</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0489078164100647</v>
+        <v>0.002027561189606786</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5243868827819824</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.8897897601127625</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01677753031253815</v>
+        <v>0.1335192620754242</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5339791774749756</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.5250150561332703</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01352888252586126</v>
+        <v>8.035547216422856e-05</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.525324821472168</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.5190117359161377</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01632928662002087</v>
+        <v>3.985505099990405e-05</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5196950435638428</v>
       </c>
       <c r="V281" t="n">
-        <v>0.801636278629303</v>
+        <v>0.8765287399291992</v>
       </c>
       <c r="W281" t="n">
-        <v>0.07949086278676987</v>
+        <v>0.1273302882909775</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4037179946899414</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8872119784355164</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0005878327647224069</v>
+        <v>0.2337664365768433</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4004080295562744</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.5308250784873962</v>
       </c>
       <c r="W283" t="n">
-        <v>0.004021483939141035</v>
+        <v>0.01700860634446144</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3982250690460205</v>
       </c>
       <c r="V284" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.8781915307044983</v>
       </c>
       <c r="W284" t="n">
-        <v>0.3333269953727722</v>
+        <v>0.2303678095340729</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4012138843536377</v>
       </c>
       <c r="V285" t="n">
-        <v>0.417663037776947</v>
+        <v>0.3991912603378296</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0002705746446736157</v>
+        <v>4.091008122486528e-06</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3974771499633789</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8746496438980103</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1636600941419601</v>
+        <v>0.2276935875415802</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3975949287414551</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.534817636013031</v>
       </c>
       <c r="W287" t="n">
-        <v>0.03187955170869827</v>
+        <v>0.0188300721347332</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3988909721374512</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.3999747931957245</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0007372894906438887</v>
+        <v>1.17466811389022e-06</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4583911895751953</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4004171192646027</v>
       </c>
       <c r="W289" t="n">
-        <v>0.002165335696190596</v>
+        <v>0.003360992763191462</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3949978351593018</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.861181378364563</v>
       </c>
       <c r="W290" t="n">
-        <v>0.01684208959341049</v>
+        <v>0.2173271030187607</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3990201950073242</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.400443822145462</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0114094652235508</v>
+        <v>2.026714128078311e-06</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.399791955947876</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.8716227412223816</v>
       </c>
       <c r="W292" t="n">
-        <v>0.06451969593763351</v>
+        <v>0.2226242870092392</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3968961238861084</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5217111706733704</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1657200455665588</v>
+        <v>0.01557879615575075</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3931510448455811</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.4002963602542877</v>
       </c>
       <c r="W294" t="n">
-        <v>0.03351724520325661</v>
+        <v>5.105553282191977e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.455409049987793</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.866769015789032</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01445187535136938</v>
+        <v>0.1692170202732086</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3964829444885254</v>
       </c>
       <c r="V296" t="n">
-        <v>0.371780127286911</v>
+        <v>0.5220218300819397</v>
       </c>
       <c r="W296" t="n">
-        <v>0.000610229151789099</v>
+        <v>0.01576001197099686</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4060459136962891</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.399842232465744</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01400348450988531</v>
+        <v>3.848566120723262e-05</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4002950191497803</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.8853043913841248</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0004863099893555045</v>
+        <v>0.2352340966463089</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3972229957580566</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.8735502362251282</v>
       </c>
       <c r="W299" t="n">
-        <v>0.008550473488867283</v>
+        <v>0.2268876433372498</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3964090347290039</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.400395929813385</v>
       </c>
       <c r="W300" t="n">
-        <v>0.06516189128160477</v>
+        <v>1.589533167134505e-05</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4045429229736328</v>
       </c>
       <c r="V301" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8633076548576355</v>
       </c>
       <c r="W301" t="n">
-        <v>0.002894098637625575</v>
+        <v>0.2104650735855103</v>
       </c>
     </row>
     <row r="302" spans="1:23">
